--- a/Data/Excel/场景配置.xlsx
+++ b/Data/Excel/场景配置.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="17">
   <si>
     <t>ResScene</t>
   </si>
@@ -44,6 +44,34 @@
   </si>
   <si>
     <t>Scene1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>required</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>float</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>view_height</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>视野高度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>view_width</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>视野宽度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>16:10的宽高比</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -396,21 +424,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="9" style="1"/>
+    <col min="1" max="1" width="14.375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18.25" style="1" customWidth="1"/>
     <col min="3" max="3" width="16" style="1" customWidth="1"/>
-    <col min="4" max="16384" width="9" style="1"/>
+    <col min="4" max="4" width="12.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -420,37 +450,70 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="D1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B2" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="D2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>11</v>
+      </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B3" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="D3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>14</v>
+      </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B4" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
+      <c r="D4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>15</v>
+      </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A5" s="1" t="s">
+        <v>16</v>
+      </c>
       <c r="B5" s="1">
         <v>1001</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
+      </c>
+      <c r="D5" s="1">
+        <v>80</v>
+      </c>
+      <c r="E5" s="1">
+        <v>50</v>
       </c>
     </row>
   </sheetData>
